--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value335.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value335.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6249347776720223</v>
+        <v>-1</v>
       </c>
       <c r="B1">
-        <v>0.9857604728632892</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>2.796746127078689</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>3.942094818201577</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.434253229653817</v>
+        <v>1.020373821258545</v>
       </c>
     </row>
   </sheetData>
